--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220504_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220504_110605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="260">
   <si>
     <t>사이트</t>
   </si>
@@ -703,13 +703,13 @@
     <t>SM</t>
   </si>
   <si>
+    <t>ABYSS</t>
+  </si>
+  <si>
     <t>MORE VISION</t>
   </si>
   <si>
     <t>빅플래닛메이드</t>
-  </si>
-  <si>
-    <t>ABYSS</t>
   </si>
   <si>
     <t>SONY MUSIC</t>
@@ -1332,6 +1332,12 @@
       <c r="F7" t="s">
         <v>176</v>
       </c>
+      <c r="G7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -1353,7 +1359,7 @@
         <v>177</v>
       </c>
       <c r="G8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H8" t="s">
         <v>258</v>
@@ -1379,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H9" t="s">
         <v>258</v>
@@ -1431,7 +1437,7 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H11" t="s">
         <v>258</v>
@@ -2055,7 +2061,7 @@
         <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H35" t="s">
         <v>258</v>
@@ -2262,6 +2268,12 @@
       <c r="F43" t="s">
         <v>192</v>
       </c>
+      <c r="G43" t="s">
+        <v>229</v>
+      </c>
+      <c r="H43" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
@@ -3557,7 +3569,7 @@
         <v>217</v>
       </c>
       <c r="G93" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H93" t="s">
         <v>258</v>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220504_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220504_110605.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>vibe</t>
+    <t>Vibe</t>
   </si>
   <si>
     <t>2022-05-04</t>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220504_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220504_110605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="260">
   <si>
     <t>사이트</t>
   </si>
@@ -1151,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3583,22 +3583,22 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E94" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="F94" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G94" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="H94" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3609,19 +3609,19 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E95" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="F95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G95" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H95" t="s">
         <v>258</v>
@@ -3635,22 +3635,22 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E96" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G96" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="H96" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3661,22 +3661,22 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F97" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="G97" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="H97" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3687,19 +3687,19 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E98" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="F98" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="G98" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H98" t="s">
         <v>258</v>
@@ -3713,19 +3713,19 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F99" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="G99" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H99" t="s">
         <v>258</v>
@@ -3739,22 +3739,22 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="F100" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G100" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="H100" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3765,47 +3765,21 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="F101" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G101" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="H101" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" t="s">
-        <v>172</v>
-      </c>
-      <c r="F102" t="s">
-        <v>223</v>
-      </c>
-      <c r="G102" t="s">
-        <v>259</v>
-      </c>
-      <c r="H102" t="s">
         <v>259</v>
       </c>
     </row>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220504_110605.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220504_110605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="259">
   <si>
     <t>사이트</t>
   </si>
@@ -742,7 +742,7 @@
     <t>스윙</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>N.A.P</t>
@@ -788,9 +788,6 @@
   </si>
   <si>
     <t>매직스트로베리 사운드</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>플레디스</t>
@@ -1258,7 +1255,7 @@
         <v>226</v>
       </c>
       <c r="H4" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1284,7 +1281,7 @@
         <v>227</v>
       </c>
       <c r="H5" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1336,7 +1333,7 @@
         <v>229</v>
       </c>
       <c r="H7" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1362,7 +1359,7 @@
         <v>230</v>
       </c>
       <c r="H8" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1388,7 +1385,7 @@
         <v>231</v>
       </c>
       <c r="H9" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1440,7 +1437,7 @@
         <v>229</v>
       </c>
       <c r="H11" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1492,7 +1489,7 @@
         <v>232</v>
       </c>
       <c r="H13" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1518,7 +1515,7 @@
         <v>233</v>
       </c>
       <c r="H14" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1544,7 +1541,7 @@
         <v>234</v>
       </c>
       <c r="H15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1570,7 +1567,7 @@
         <v>235</v>
       </c>
       <c r="H16" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1596,7 +1593,7 @@
         <v>227</v>
       </c>
       <c r="H17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1622,7 +1619,7 @@
         <v>236</v>
       </c>
       <c r="H18" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1648,7 +1645,7 @@
         <v>237</v>
       </c>
       <c r="H19" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1674,7 +1671,7 @@
         <v>238</v>
       </c>
       <c r="H20" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1700,7 +1697,7 @@
         <v>237</v>
       </c>
       <c r="H21" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1726,7 +1723,7 @@
         <v>239</v>
       </c>
       <c r="H22" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1752,7 +1749,7 @@
         <v>227</v>
       </c>
       <c r="H23" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1778,7 +1775,7 @@
         <v>240</v>
       </c>
       <c r="H24" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1830,7 +1827,7 @@
         <v>242</v>
       </c>
       <c r="H26" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1908,7 +1905,7 @@
         <v>238</v>
       </c>
       <c r="H29" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1934,7 +1931,7 @@
         <v>226</v>
       </c>
       <c r="H30" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1960,7 +1957,7 @@
         <v>237</v>
       </c>
       <c r="H31" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1986,7 +1983,7 @@
         <v>243</v>
       </c>
       <c r="H32" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2012,7 +2009,7 @@
         <v>233</v>
       </c>
       <c r="H33" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2064,7 +2061,7 @@
         <v>231</v>
       </c>
       <c r="H35" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2090,7 +2087,7 @@
         <v>244</v>
       </c>
       <c r="H36" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2168,7 +2165,7 @@
         <v>233</v>
       </c>
       <c r="H39" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2194,7 +2191,7 @@
         <v>246</v>
       </c>
       <c r="H40" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2220,7 +2217,7 @@
         <v>233</v>
       </c>
       <c r="H41" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2272,7 +2269,7 @@
         <v>229</v>
       </c>
       <c r="H43" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2298,7 +2295,7 @@
         <v>247</v>
       </c>
       <c r="H44" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2324,7 +2321,7 @@
         <v>246</v>
       </c>
       <c r="H45" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2350,7 +2347,7 @@
         <v>242</v>
       </c>
       <c r="H46" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2454,7 +2451,7 @@
         <v>248</v>
       </c>
       <c r="H50" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2480,7 +2477,7 @@
         <v>233</v>
       </c>
       <c r="H51" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2506,7 +2503,7 @@
         <v>233</v>
       </c>
       <c r="H52" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2532,7 +2529,7 @@
         <v>237</v>
       </c>
       <c r="H53" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2584,7 +2581,7 @@
         <v>237</v>
       </c>
       <c r="H55" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2610,7 +2607,7 @@
         <v>242</v>
       </c>
       <c r="H56" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2636,7 +2633,7 @@
         <v>249</v>
       </c>
       <c r="H57" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2662,7 +2659,7 @@
         <v>237</v>
       </c>
       <c r="H58" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2688,7 +2685,7 @@
         <v>242</v>
       </c>
       <c r="H59" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2740,7 +2737,7 @@
         <v>251</v>
       </c>
       <c r="H61" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2818,7 +2815,7 @@
         <v>235</v>
       </c>
       <c r="H64" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2844,7 +2841,7 @@
         <v>233</v>
       </c>
       <c r="H65" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2870,7 +2867,7 @@
         <v>252</v>
       </c>
       <c r="H66" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2922,7 +2919,7 @@
         <v>238</v>
       </c>
       <c r="H68" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2948,7 +2945,7 @@
         <v>240</v>
       </c>
       <c r="H69" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2974,7 +2971,7 @@
         <v>240</v>
       </c>
       <c r="H70" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3000,7 +2997,7 @@
         <v>242</v>
       </c>
       <c r="H71" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3026,7 +3023,7 @@
         <v>253</v>
       </c>
       <c r="H72" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3104,7 +3101,7 @@
         <v>242</v>
       </c>
       <c r="H75" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3130,7 +3127,7 @@
         <v>238</v>
       </c>
       <c r="H76" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3156,7 +3153,7 @@
         <v>237</v>
       </c>
       <c r="H77" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3182,7 +3179,7 @@
         <v>233</v>
       </c>
       <c r="H78" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3208,7 +3205,7 @@
         <v>242</v>
       </c>
       <c r="H79" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3234,7 +3231,7 @@
         <v>226</v>
       </c>
       <c r="H80" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3260,7 +3257,7 @@
         <v>254</v>
       </c>
       <c r="H81" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3286,7 +3283,7 @@
         <v>242</v>
       </c>
       <c r="H82" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3312,7 +3309,7 @@
         <v>244</v>
       </c>
       <c r="H83" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3364,7 +3361,7 @@
         <v>255</v>
       </c>
       <c r="H85" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3390,7 +3387,7 @@
         <v>233</v>
       </c>
       <c r="H86" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3416,7 +3413,7 @@
         <v>256</v>
       </c>
       <c r="H87" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3442,7 +3439,7 @@
         <v>237</v>
       </c>
       <c r="H88" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3468,7 +3465,7 @@
         <v>237</v>
       </c>
       <c r="H89" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3520,7 +3517,7 @@
         <v>257</v>
       </c>
       <c r="H91" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3546,7 +3543,7 @@
         <v>227</v>
       </c>
       <c r="H92" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3572,7 +3569,7 @@
         <v>231</v>
       </c>
       <c r="H93" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3598,7 +3595,7 @@
         <v>249</v>
       </c>
       <c r="H94" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3624,7 +3621,7 @@
         <v>255</v>
       </c>
       <c r="H95" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3673,10 +3670,10 @@
         <v>171</v>
       </c>
       <c r="G97" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="H97" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3702,7 +3699,7 @@
         <v>253</v>
       </c>
       <c r="H98" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3728,7 +3725,7 @@
         <v>257</v>
       </c>
       <c r="H99" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3777,10 +3774,10 @@
         <v>223</v>
       </c>
       <c r="G101" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H101" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
